--- a/static/generator_db.xlsx
+++ b/static/generator_db.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/550ce777ae715ba0/Documents/GitHub/Assignment_1/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="209" documentId="8_{FE4B04E3-FF83-40D6-B7C5-8304D39C2D78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AD144C7C-50D3-44E1-B285-7E1D657F5D60}"/>
+  <xr:revisionPtr revIDLastSave="221" documentId="8_{FE4B04E3-FF83-40D6-B7C5-8304D39C2D78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EBB2B8D3-9E74-4E43-A898-65B5838B6AC7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{92CE401A-0AF9-4874-8CF0-56117AC0F859}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Main_Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="219">
   <si>
     <t>Theme</t>
   </si>
@@ -669,6 +669,27 @@
   </si>
   <si>
     <t>Agoraphobic</t>
+  </si>
+  <si>
+    <t>Anxious</t>
+  </si>
+  <si>
+    <t>Narcoleptic</t>
+  </si>
+  <si>
+    <t>Pescatarian</t>
+  </si>
+  <si>
+    <t>Red Herring</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>Elderly</t>
   </si>
 </sst>
 </file>
@@ -1029,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FACE9DD-5F83-4F20-B927-266335C461B5}">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1683,43 +1704,67 @@
       <c r="D42" t="s">
         <v>147</v>
       </c>
+      <c r="F42" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
         <v>148</v>
       </c>
+      <c r="F43" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
         <v>149</v>
       </c>
+      <c r="F44" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
         <v>150</v>
       </c>
+      <c r="F45" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
         <v>151</v>
       </c>
+      <c r="F46" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
         <v>80</v>
       </c>
+      <c r="F47" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F48" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>78</v>
       </c>
@@ -1727,72 +1772,72 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D51" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>187</v>
       </c>
@@ -1825,6 +1870,11 @@
     <row r="70" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
         <v>209</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D71" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/static/generator_db.xlsx
+++ b/static/generator_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/550ce777ae715ba0/Documents/GitHub/Assignment_1/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="221" documentId="8_{FE4B04E3-FF83-40D6-B7C5-8304D39C2D78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EBB2B8D3-9E74-4E43-A898-65B5838B6AC7}"/>
+  <xr:revisionPtr revIDLastSave="226" documentId="8_{FE4B04E3-FF83-40D6-B7C5-8304D39C2D78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2A75A5A0-52EE-4CEA-8924-D9BE28EE63AE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{92CE401A-0AF9-4874-8CF0-56117AC0F859}"/>
+    <workbookView minimized="1" xWindow="-96" yWindow="60" windowWidth="17616" windowHeight="16764" xr2:uid="{92CE401A-0AF9-4874-8CF0-56117AC0F859}"/>
   </bookViews>
   <sheets>
     <sheet name="Main_Sheet" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="217">
   <si>
     <t>Theme</t>
   </si>
@@ -86,18 +86,6 @@
     <t>Apex Legends</t>
   </si>
   <si>
-    <t>Romantic</t>
-  </si>
-  <si>
-    <t>Thriller</t>
-  </si>
-  <si>
-    <t>Comedy</t>
-  </si>
-  <si>
-    <t>Horror</t>
-  </si>
-  <si>
     <t>Horse</t>
   </si>
   <si>
@@ -690,6 +678,12 @@
   </si>
   <si>
     <t>Elderly</t>
+  </si>
+  <si>
+    <t>Horror Adventure</t>
+  </si>
+  <si>
+    <t>Survival Horror</t>
   </si>
 </sst>
 </file>
@@ -1052,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FACE9DD-5F83-4F20-B927-266335C461B5}">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1080,7 +1074,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>15</v>
@@ -1088,10 +1082,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -1100,15 +1094,15 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>215</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -1120,761 +1114,755 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F16" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>119</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21" t="s">
         <v>75</v>
       </c>
-      <c r="F20" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>200</v>
-      </c>
-      <c r="B21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" t="s">
-        <v>197</v>
-      </c>
-      <c r="D21" t="s">
-        <v>79</v>
-      </c>
       <c r="F21" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>201</v>
-      </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F24" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F25" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F26" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F27" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D28" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F28" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D29" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F29" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D31" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F31" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F32" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D33" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F33" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D34" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F34" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D35" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F35" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D36" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F36" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D37" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F37" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D38" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F38" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D39" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F39" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D40" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F40" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D41" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F41" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F42" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F43" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F44" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F45" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F46" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F47" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F48" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F49" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D50" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D51" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="66" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D66" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D67" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D69" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="70" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="71" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
